--- a/Pandas/planilha.xlsx
+++ b/Pandas/planilha.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f45dea9d9bf6966b/Área de Trabalho/UNICAMP/LAB.FÍS 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2EEA922-44A2-4A5C-A56E-0FD18543746A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7665D513-4593-4522-BEC0-D99E57D42A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{5344FD5D-FE96-494C-9060-445472569E2D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{5344FD5D-FE96-494C-9060-445472569E2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
   <si>
     <t>Paralelo</t>
   </si>
@@ -57,6 +57,9 @@
   <si>
     <t>V</t>
   </si>
+  <si>
+    <t>INCERTEZA</t>
+  </si>
 </sst>
 </file>
 
@@ -66,7 +69,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,8 +94,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,8 +127,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED7D31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -120,11 +142,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -140,6 +207,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3838,15 +3929,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A918C791-DA23-4C9A-911F-41A350CBA004}">
-  <dimension ref="A1:C122"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection sqref="A1:C122"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -3856,8 +3947,11 @@
       <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3867,8 +3961,11 @@
       <c r="C2" s="2">
         <v>2.5310000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="11">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -3878,8 +3975,11 @@
       <c r="C3" s="2">
         <v>2.5310000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="12">
+        <v>7.7929999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -3889,8 +3989,11 @@
       <c r="C4" s="2">
         <v>2.5310000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="12">
+        <v>7.7929999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>9</v>
       </c>
@@ -3900,8 +4003,11 @@
       <c r="C5" s="2">
         <v>2.5310000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="12">
+        <v>7.7929999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>12</v>
       </c>
@@ -3911,8 +4017,11 @@
       <c r="C6" s="2">
         <v>2.5310000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="12">
+        <v>7.7929999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>14</v>
       </c>
@@ -3922,8 +4031,11 @@
       <c r="C7" s="2">
         <v>2.5310000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="12">
+        <v>7.7929999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>-3</v>
       </c>
@@ -3933,8 +4045,11 @@
       <c r="C8" s="2">
         <v>2.5310000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="12">
+        <v>7.7929999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>-6</v>
       </c>
@@ -3944,8 +4059,11 @@
       <c r="C9" s="1">
         <v>2.5369999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="12">
+        <v>7.7929999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>-9</v>
       </c>
@@ -3955,8 +4073,11 @@
       <c r="C10" s="1">
         <v>2.5310000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="12">
+        <v>7.8109999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>-12</v>
       </c>
@@ -3966,8 +4087,11 @@
       <c r="C11" s="1">
         <v>2.5640000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="12">
+        <v>7.7929999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>-14</v>
       </c>
@@ -3977,8 +4101,11 @@
       <c r="C12" s="1">
         <v>2.5310000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="12">
+        <v>7.8920000000000004E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -3988,8 +4115,11 @@
       <c r="C13" s="1">
         <v>2.3519999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="12">
+        <v>7.7929999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -3999,8 +4129,11 @@
       <c r="C14" s="1">
         <v>2.367</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="12">
+        <v>7.2559999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>6</v>
       </c>
@@ -4010,8 +4143,11 @@
       <c r="C15" s="1">
         <v>2.3639999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="12">
+        <v>7.3010000000000005E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>9</v>
       </c>
@@ -4021,8 +4157,11 @@
       <c r="C16" s="1">
         <v>2.355</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="12">
+        <v>7.2919999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>12</v>
       </c>
@@ -4032,8 +4171,11 @@
       <c r="C17" s="1">
         <v>2.3279999999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="12">
+        <v>7.2650000000000006E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -4043,8 +4185,11 @@
       <c r="C18" s="1">
         <v>2.2970000000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="12">
+        <v>7.1840000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>-3</v>
       </c>
@@ -4054,8 +4199,11 @@
       <c r="C19" s="1">
         <v>2.3620000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="12">
+        <v>7.0910000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>-6</v>
       </c>
@@ -4065,8 +4213,11 @@
       <c r="C20" s="1">
         <v>2.3570000000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="12">
+        <v>7.2859999999999994E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>-9</v>
       </c>
@@ -4076,8 +4227,11 @@
       <c r="C21" s="1">
         <v>2.3570000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="12">
+        <v>7.2709999999999997E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>-12</v>
       </c>
@@ -4087,8 +4241,11 @@
       <c r="C22" s="1">
         <v>2.3410000000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="12">
+        <v>7.2709999999999997E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>-14</v>
       </c>
@@ -4098,8 +4255,11 @@
       <c r="C23" s="1">
         <v>2.2989999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="12">
+        <v>7.2230000000000003E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -4109,8 +4269,11 @@
       <c r="C24" s="1">
         <v>2.1179999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="12">
+        <v>7.0970000000000005E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -4120,8 +4283,11 @@
       <c r="C25" s="1">
         <v>2.1110000000000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="12">
+        <v>6.5540000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>6</v>
       </c>
@@ -4131,8 +4297,11 @@
       <c r="C26" s="1">
         <v>2.1030000000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="12">
+        <v>6.5329999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>9</v>
       </c>
@@ -4142,8 +4311,11 @@
       <c r="C27" s="1">
         <v>2.0819999999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="12">
+        <v>6.5089999999999995E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>12</v>
       </c>
@@ -4153,8 +4325,11 @@
       <c r="C28" s="2">
         <v>2.06</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="12">
+        <v>6.4460000000000003E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>14</v>
       </c>
@@ -4164,8 +4339,11 @@
       <c r="C29" s="2">
         <v>1.9830000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="12">
+        <v>6.3799999999999996E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>-3</v>
       </c>
@@ -4175,8 +4353,11 @@
       <c r="C30" s="2">
         <v>2.129</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="12">
+        <v>6.1490000000000003E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>-6</v>
       </c>
@@ -4186,8 +4367,11 @@
       <c r="C31" s="2">
         <v>2.1080000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="12">
+        <v>6.5869999999999998E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>-9</v>
       </c>
@@ -4197,8 +4381,11 @@
       <c r="C32" s="2">
         <v>2.0979999999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="12">
+        <v>6.5240000000000006E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>-12</v>
       </c>
@@ -4208,8 +4395,11 @@
       <c r="C33" s="2">
         <v>2.056</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="12">
+        <v>6.4939999999999998E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>-14</v>
       </c>
@@ -4219,8 +4409,11 @@
       <c r="C34" s="2">
         <v>1.9870000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="12">
+        <v>6.368E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -4230,8 +4423,11 @@
       <c r="C35" s="2">
         <v>1.855</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="12">
+        <v>6.1609999999999998E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>3</v>
       </c>
@@ -4241,8 +4437,11 @@
       <c r="C36" s="2">
         <v>1.8660000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="12">
+        <v>5.765E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>6</v>
       </c>
@@ -4252,8 +4451,11 @@
       <c r="C37" s="2">
         <v>1.8540000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" s="12">
+        <v>5.7979999999999997E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>9</v>
       </c>
@@ -4263,8 +4465,11 @@
       <c r="C38" s="2">
         <v>1.8480000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" s="12">
+        <v>5.7619999999999998E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>12</v>
       </c>
@@ -4274,8 +4479,11 @@
       <c r="C39" s="2">
         <v>1.8109999999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" s="12">
+        <v>5.7439999999999998E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>14</v>
       </c>
@@ -4285,8 +4493,11 @@
       <c r="C40" s="2">
         <v>1.7749999999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" s="12">
+        <v>5.6329999999999998E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>-3</v>
       </c>
@@ -4296,8 +4507,11 @@
       <c r="C41" s="2">
         <v>1.8620000000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" s="12">
+        <v>5.525E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>-6</v>
       </c>
@@ -4307,8 +4521,11 @@
       <c r="C42" s="2">
         <v>1.855</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" s="12">
+        <v>5.7860000000000002E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>-9</v>
       </c>
@@ -4318,8 +4535,11 @@
       <c r="C43" s="2">
         <v>1.845</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" s="12">
+        <v>5.765E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>-12</v>
       </c>
@@ -4329,8 +4549,11 @@
       <c r="C44" s="2">
         <v>1.8109999999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" s="12">
+        <v>5.7349999999999998E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>-14</v>
       </c>
@@ -4340,8 +4563,11 @@
       <c r="C45" s="2">
         <v>1.774</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" s="12">
+        <v>5.6329999999999998E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>0</v>
       </c>
@@ -4351,8 +4577,11 @@
       <c r="C46" s="2">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" s="12">
+        <v>5.5219999999999998E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>3</v>
       </c>
@@ -4362,8 +4591,11 @@
       <c r="C47" s="2">
         <v>1.6020000000000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" s="12">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
         <v>6</v>
       </c>
@@ -4373,8 +4605,11 @@
       <c r="C48" s="2">
         <v>1.5880000000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" s="12">
+        <v>5.006E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>9</v>
       </c>
@@ -4384,8 +4619,11 @@
       <c r="C49" s="2">
         <v>1.6120000000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" s="12">
+        <v>4.9639999999999997E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>12</v>
       </c>
@@ -4395,8 +4633,11 @@
       <c r="C50" s="2">
         <v>1.591</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" s="12">
+        <v>5.0360000000000002E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>14</v>
       </c>
@@ -4406,8 +4647,11 @@
       <c r="C51" s="2">
         <v>1.579</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" s="12">
+        <v>4.9730000000000003E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>-3</v>
       </c>
@@ -4417,8 +4661,11 @@
       <c r="C52" s="2">
         <v>1.61</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" s="12">
+        <v>4.9369999999999997E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>-6</v>
       </c>
@@ -4428,8 +4675,11 @@
       <c r="C53" s="2">
         <v>1.601</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" s="12">
+        <v>5.0299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>-9</v>
       </c>
@@ -4439,8 +4689,11 @@
       <c r="C54" s="2">
         <v>1.593</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" s="12">
+        <v>5.0029999999999998E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>-12</v>
       </c>
@@ -4450,8 +4703,11 @@
       <c r="C55" s="2">
         <v>1.5680000000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" s="12">
+        <v>4.9790000000000001E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>-14</v>
       </c>
@@ -4461,8 +4717,11 @@
       <c r="C56" s="2">
         <v>1.5349999999999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" s="12">
+        <v>4.904E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <v>0</v>
       </c>
@@ -4472,8 +4731,11 @@
       <c r="C57" s="2">
         <v>1.3480000000000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" s="12">
+        <v>4.8050000000000002E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1">
         <v>3</v>
       </c>
@@ -4483,8 +4745,11 @@
       <c r="C58" s="2">
         <v>1.3460000000000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" s="12">
+        <v>4.2439999999999999E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
         <v>6</v>
       </c>
@@ -4494,8 +4759,11 @@
       <c r="C59" s="2">
         <v>1.3480000000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" s="12">
+        <v>4.2380000000000001E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1">
         <v>9</v>
       </c>
@@ -4505,8 +4773,11 @@
       <c r="C60" s="2">
         <v>1.3420000000000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60" s="12">
+        <v>4.2439999999999999E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1">
         <v>12</v>
       </c>
@@ -4516,8 +4787,11 @@
       <c r="C61" s="2">
         <v>1.34</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61" s="12">
+        <v>4.2259999999999999E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
         <v>14</v>
       </c>
@@ -4527,8 +4801,11 @@
       <c r="C62" s="2">
         <v>1.349</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" s="12">
+        <v>4.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1">
         <v>-3</v>
       </c>
@@ -4538,8 +4815,11 @@
       <c r="C63" s="2">
         <v>1.357</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63" s="12">
+        <v>4.2470000000000001E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1">
         <v>-6</v>
       </c>
@@ -4549,8 +4829,11 @@
       <c r="C64" s="2">
         <v>1.355</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" s="12">
+        <v>4.2709999999999998E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1">
         <v>-9</v>
       </c>
@@ -4560,8 +4843,11 @@
       <c r="C65" s="2">
         <v>1.35</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65" s="12">
+        <v>4.265E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
         <v>-12</v>
       </c>
@@ -4571,8 +4857,11 @@
       <c r="C66" s="2">
         <v>1.3380000000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66" s="12">
+        <v>4.2500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
         <v>-14</v>
       </c>
@@ -4582,8 +4871,11 @@
       <c r="C67" s="2">
         <v>1.331</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67" s="12">
+        <v>4.2139999999999997E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1">
         <v>0</v>
       </c>
@@ -4593,8 +4885,11 @@
       <c r="C68" s="2">
         <v>1.087</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68" s="12">
+        <v>4.1930000000000002E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1">
         <v>3</v>
       </c>
@@ -4604,8 +4899,11 @@
       <c r="C69" s="2">
         <v>1.085</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69" s="12">
+        <v>3.4610000000000002E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1">
         <v>6</v>
       </c>
@@ -4615,8 +4913,11 @@
       <c r="C70" s="2">
         <v>1.089</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70" s="12">
+        <v>3.4549999999999997E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1">
         <v>9</v>
       </c>
@@ -4626,8 +4927,11 @@
       <c r="C71" s="2">
         <v>1.1020000000000001</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71" s="12">
+        <v>3.4669999999999999E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1">
         <v>12</v>
       </c>
@@ -4637,8 +4941,11 @@
       <c r="C72" s="2">
         <v>1.1100000000000001</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72" s="12">
+        <v>3.5060000000000001E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1">
         <v>14</v>
       </c>
@@ -4648,8 +4955,11 @@
       <c r="C73" s="2">
         <v>1.123</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73" s="12">
+        <v>3.5299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1">
         <v>-3</v>
       </c>
@@ -4659,8 +4969,11 @@
       <c r="C74" s="2">
         <v>1.08</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74" s="12">
+        <v>3.569E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1">
         <v>-6</v>
       </c>
@@ -4670,8 +4983,11 @@
       <c r="C75" s="2">
         <v>1.0760000000000001</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75" s="12">
+        <v>3.44E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1">
         <v>-9</v>
       </c>
@@ -4681,8 +4997,11 @@
       <c r="C76" s="2">
         <v>1.0920000000000001</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76" s="12">
+        <v>3.4279999999999998E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1">
         <v>-12</v>
       </c>
@@ -4692,8 +5011,11 @@
       <c r="C77" s="2">
         <v>1.1020000000000001</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77" s="12">
+        <v>3.4759999999999999E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1">
         <v>-14</v>
       </c>
@@ -4703,8 +5025,11 @@
       <c r="C78" s="2">
         <v>1.0980000000000001</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78" s="12">
+        <v>3.5060000000000001E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1">
         <v>0</v>
       </c>
@@ -4714,8 +5039,11 @@
       <c r="C79" s="2">
         <v>0.81699999999999995</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79" s="12">
+        <v>3.4939999999999999E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1">
         <v>3</v>
       </c>
@@ -4725,8 +5053,11 @@
       <c r="C80" s="2">
         <v>0.83299999999999996</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80" s="12">
+        <v>2.6509999999999999E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1">
         <v>6</v>
       </c>
@@ -4736,8 +5067,11 @@
       <c r="C81" s="2">
         <v>0.83099999999999996</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81" s="12">
+        <v>2.699E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1">
         <v>9</v>
       </c>
@@ -4747,8 +5081,11 @@
       <c r="C82" s="2">
         <v>0.84499999999999997</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82" s="12">
+        <v>2.6929999999999999E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1">
         <v>12</v>
       </c>
@@ -4758,8 +5095,11 @@
       <c r="C83" s="2">
         <v>0.872</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83" s="12">
+        <v>2.7349999999999999E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1">
         <v>14</v>
       </c>
@@ -4769,8 +5109,11 @@
       <c r="C84" s="2">
         <v>0.91600000000000004</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84" s="12">
+        <v>2.8160000000000001E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1">
         <v>-3</v>
       </c>
@@ -4780,8 +5123,11 @@
       <c r="C85" s="2">
         <v>0.82199999999999995</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="D85" s="12">
+        <v>2.9479999999999999E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1">
         <v>-6</v>
       </c>
@@ -4791,8 +5137,11 @@
       <c r="C86" s="2">
         <v>0.81100000000000005</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="D86" s="12">
+        <v>2.666E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1">
         <v>-9</v>
       </c>
@@ -4802,8 +5151,11 @@
       <c r="C87" s="2">
         <v>0.81799999999999995</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="D87" s="12">
+        <v>2.6329999999999999E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1">
         <v>-12</v>
       </c>
@@ -4813,8 +5165,11 @@
       <c r="C88" s="2">
         <v>0.84399999999999997</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D88" s="12">
+        <v>2.6540000000000001E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1">
         <v>-14</v>
       </c>
@@ -4824,8 +5179,11 @@
       <c r="C89" s="2">
         <v>0.879</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89" s="12">
+        <v>2.7320000000000001E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1">
         <v>0</v>
       </c>
@@ -4835,8 +5193,11 @@
       <c r="C90" s="2">
         <v>0.54200000000000004</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="D90" s="12">
+        <v>2.8369999999999999E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1">
         <v>3</v>
       </c>
@@ -4846,8 +5207,11 @@
       <c r="C91" s="2">
         <v>0.56399999999999995</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="D91" s="12">
+        <v>1.8259999999999998E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1">
         <v>6</v>
       </c>
@@ -4857,8 +5221,11 @@
       <c r="C92" s="2">
         <v>0.56100000000000005</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92" s="12">
+        <v>1.8919999999999999E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1">
         <v>9</v>
       </c>
@@ -4868,8 +5235,11 @@
       <c r="C93" s="2">
         <v>0.57099999999999995</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93" s="12">
+        <v>1.883E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1">
         <v>12</v>
       </c>
@@ -4879,8 +5249,11 @@
       <c r="C94" s="2">
         <v>0.624</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94" s="12">
+        <v>1.9130000000000001E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1">
         <v>14</v>
       </c>
@@ -4890,8 +5263,11 @@
       <c r="C95" s="2">
         <v>0.68100000000000005</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95" s="12">
+        <v>2.0719999999999999E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1">
         <v>-3</v>
       </c>
@@ -4901,8 +5277,11 @@
       <c r="C96" s="2">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96" s="12">
+        <v>2.2429999999999999E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1">
         <v>-6</v>
       </c>
@@ -4912,8 +5291,11 @@
       <c r="C97" s="2">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="D97" s="12">
+        <v>1.8800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1">
         <v>-9</v>
       </c>
@@ -4923,8 +5305,11 @@
       <c r="C98" s="2">
         <v>0.55900000000000005</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="D98" s="12">
+        <v>1.8800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1">
         <v>-12</v>
       </c>
@@ -4934,8 +5319,11 @@
       <c r="C99" s="2">
         <v>0.59799999999999998</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="D99" s="12">
+        <v>1.8769999999999998E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1">
         <v>-14</v>
       </c>
@@ -4945,8 +5333,11 @@
       <c r="C100" s="2">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100" s="12">
+        <v>1.9939999999999999E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1">
         <v>0</v>
       </c>
@@ -4956,8 +5347,11 @@
       <c r="C101" s="2">
         <v>0.28699999999999998</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="D101" s="12">
+        <v>2.18E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1">
         <v>3</v>
       </c>
@@ -4967,8 +5361,11 @@
       <c r="C102" s="2">
         <v>0.27300000000000002</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102" s="12">
+        <v>1.061E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1">
         <v>6</v>
       </c>
@@ -4978,8 +5375,11 @@
       <c r="C103" s="2">
         <v>0.27600000000000002</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103" s="12">
+        <v>1.0189999999999999E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1">
         <v>9</v>
       </c>
@@ -4989,8 +5389,11 @@
       <c r="C104" s="2">
         <v>0.28399999999999997</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="D104" s="12">
+        <v>1.0279999999999999E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" s="1">
         <v>12</v>
       </c>
@@ -5000,8 +5403,11 @@
       <c r="C105" s="2">
         <v>0.309</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="D105" s="12">
+        <v>1.052E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" s="1">
         <v>14</v>
       </c>
@@ -5011,8 +5417,11 @@
       <c r="C106" s="2">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="D106" s="12">
+        <v>1.1270000000000001E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" s="1">
         <v>-3</v>
       </c>
@@ -5022,8 +5431,11 @@
       <c r="C107" s="2">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="D107" s="12">
+        <v>1.34E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" s="1">
         <v>-6</v>
       </c>
@@ -5033,8 +5445,11 @@
       <c r="C108" s="2">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="D108" s="12">
+        <v>1.04E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" s="1">
         <v>-9</v>
       </c>
@@ -5044,8 +5459,11 @@
       <c r="C109" s="2">
         <v>0.28599999999999998</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="D109" s="12">
+        <v>1.01E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" s="1">
         <v>-12</v>
       </c>
@@ -5055,8 +5473,11 @@
       <c r="C110" s="2">
         <v>0.31900000000000001</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="D110" s="12">
+        <v>1.0580000000000001E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" s="1">
         <v>-14</v>
       </c>
@@ -5066,8 +5487,11 @@
       <c r="C111" s="2">
         <v>0.36399999999999999</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="D111" s="12">
+        <v>1.157E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" s="1">
         <v>0</v>
       </c>
@@ -5077,8 +5501,11 @@
       <c r="C112" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="D112" s="12">
+        <v>1.2919999999999999E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" s="1">
         <v>3</v>
       </c>
@@ -5088,8 +5515,11 @@
       <c r="C113" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="D113" s="12">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" s="1">
         <v>6</v>
       </c>
@@ -5099,8 +5529,11 @@
       <c r="C114" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="D114" s="12">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" s="1">
         <v>9</v>
       </c>
@@ -5110,8 +5543,11 @@
       <c r="C115" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="D115" s="12">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" s="1">
         <v>12</v>
       </c>
@@ -5121,8 +5557,11 @@
       <c r="C116" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="D116" s="12">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" s="1">
         <v>14</v>
       </c>
@@ -5132,8 +5571,11 @@
       <c r="C117" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="D117" s="12">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" s="1">
         <v>-3</v>
       </c>
@@ -5143,8 +5585,11 @@
       <c r="C118" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="D118" s="12">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" s="1">
         <v>-6</v>
       </c>
@@ -5154,8 +5599,11 @@
       <c r="C119" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="D119" s="12">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" s="1">
         <v>-9</v>
       </c>
@@ -5165,8 +5613,11 @@
       <c r="C120" s="2">
         <v>4.3999999999999997E-2</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="D120" s="12">
+        <v>3.3500000000000001E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" s="1">
         <v>-12</v>
       </c>
@@ -5176,8 +5627,11 @@
       <c r="C121" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="D121" s="12">
+        <v>3.32E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" s="1">
         <v>-14</v>
       </c>
@@ -5186,6 +5640,14 @@
       </c>
       <c r="C122" s="2">
         <v>0</v>
+      </c>
+      <c r="D122" s="12">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="D123" s="13">
+        <v>2E-3</v>
       </c>
     </row>
   </sheetData>
@@ -5195,15 +5657,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3A96DC-C749-47CE-9B21-8BD14C3F09A8}">
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection sqref="A1:C111"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -5213,8 +5675,11 @@
       <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -5224,8 +5689,11 @@
       <c r="C2" s="2">
         <v>2.54</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="8">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -5235,8 +5703,11 @@
       <c r="C3" s="2">
         <v>2.5390000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="7">
+        <v>7.8200000000000006E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -5246,8 +5717,11 @@
       <c r="C4" s="2">
         <v>2.5390000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="7">
+        <v>7.8170000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>9</v>
       </c>
@@ -5257,8 +5731,11 @@
       <c r="C5" s="2">
         <v>2.5379999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="7">
+        <v>7.8170000000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>12</v>
       </c>
@@ -5268,8 +5745,11 @@
       <c r="C6" s="2">
         <v>2.5390000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="7">
+        <v>7.8140000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>14</v>
       </c>
@@ -5279,8 +5759,11 @@
       <c r="C7" s="2">
         <v>2.5009999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="7">
+        <v>7.8170000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>-3</v>
       </c>
@@ -5290,8 +5773,11 @@
       <c r="C8" s="2">
         <v>2.4980000000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="7">
+        <v>7.7030000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>-6</v>
       </c>
@@ -5301,8 +5787,11 @@
       <c r="C9" s="2">
         <v>2.5350000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="7">
+        <v>7.6939999999999995E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>-9</v>
       </c>
@@ -5312,8 +5801,11 @@
       <c r="C10" s="2">
         <v>2.4529999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="7">
+        <v>7.8049999999999994E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>-12</v>
       </c>
@@ -5323,8 +5815,11 @@
       <c r="C11" s="2">
         <v>2.4319999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="7">
+        <v>7.5590000000000004E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>-14</v>
       </c>
@@ -5334,8 +5829,11 @@
       <c r="C12" s="2">
         <v>2.4300000000000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="7">
+        <v>7.4959999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -5345,8 +5843,11 @@
       <c r="C13" s="2">
         <v>2.5390000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="7">
+        <v>7.4899999999999994E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -5356,8 +5857,11 @@
       <c r="C14" s="2">
         <v>2.3959999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="7">
+        <v>7.8170000000000003E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>6</v>
       </c>
@@ -5367,8 +5871,11 @@
       <c r="C15" s="2">
         <v>2.3130000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="7">
+        <v>7.3880000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>9</v>
       </c>
@@ -5378,8 +5885,11 @@
       <c r="C16" s="2">
         <v>2.258</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="7">
+        <v>7.1389999999999995E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>12</v>
       </c>
@@ -5389,8 +5899,11 @@
       <c r="C17" s="2">
         <v>2.2090000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="7">
+        <v>6.9739999999999996E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -5400,8 +5913,11 @@
       <c r="C18" s="2">
         <v>2.145</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="7">
+        <v>6.8269999999999997E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>-3</v>
       </c>
@@ -5411,8 +5927,11 @@
       <c r="C19" s="2">
         <v>2.375</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="7">
+        <v>6.6350000000000006E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>-6</v>
       </c>
@@ -5422,8 +5941,11 @@
       <c r="C20" s="2">
         <v>2.294</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="7">
+        <v>7.3249999999999996E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>-9</v>
       </c>
@@ -5433,8 +5955,11 @@
       <c r="C21" s="2">
         <v>2.254</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="7">
+        <v>7.0819999999999994E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>-12</v>
       </c>
@@ -5444,8 +5969,11 @@
       <c r="C22" s="2">
         <v>2.2120000000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="7">
+        <v>6.9620000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>-14</v>
       </c>
@@ -5455,8 +5983,11 @@
       <c r="C23" s="2">
         <v>2.1589999999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="7">
+        <v>6.8360000000000004E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -5466,8 +5997,11 @@
       <c r="C24" s="2">
         <v>2.5329999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="7">
+        <v>6.6769999999999996E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -5477,8 +6011,11 @@
       <c r="C25" s="2">
         <v>2.2789999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="7">
+        <v>7.7990000000000004E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>6</v>
       </c>
@@ -5488,8 +6025,11 @@
       <c r="C26" s="2">
         <v>2.1890000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="7">
+        <v>7.0370000000000002E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>9</v>
       </c>
@@ -5499,8 +6039,11 @@
       <c r="C27" s="2">
         <v>2.129</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="7">
+        <v>6.7669999999999994E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>12</v>
       </c>
@@ -5510,8 +6053,11 @@
       <c r="C28" s="2">
         <v>2.0880000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="7">
+        <v>6.5869999999999998E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>14</v>
       </c>
@@ -5521,8 +6067,11 @@
       <c r="C29" s="2">
         <v>2.0110000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="7">
+        <v>6.4640000000000003E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>-3</v>
       </c>
@@ -5532,8 +6081,11 @@
       <c r="C30" s="2">
         <v>2.2930000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="7">
+        <v>6.2330000000000003E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>-6</v>
       </c>
@@ -5543,8 +6095,11 @@
       <c r="C31" s="2">
         <v>2.1930000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="7">
+        <v>7.0790000000000006E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>-9</v>
       </c>
@@ -5554,8 +6109,11 @@
       <c r="C32" s="2">
         <v>2.1309999999999998</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="7">
+        <v>6.7790000000000003E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>-12</v>
       </c>
@@ -5565,8 +6123,11 @@
       <c r="C33" s="2">
         <v>2.08</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="7">
+        <v>6.5930000000000002E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>-14</v>
       </c>
@@ -5576,8 +6137,11 @@
       <c r="C34" s="2">
         <v>2.02</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="7">
+        <v>6.4399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -5587,8 +6151,11 @@
       <c r="C35" s="2">
         <v>2.5329999999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="7">
+        <v>6.2600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>3</v>
       </c>
@@ -5598,8 +6165,11 @@
       <c r="C36" s="2">
         <v>2.125</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="7">
+        <v>7.7990000000000004E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>6</v>
       </c>
@@ -5609,8 +6179,11 @@
       <c r="C37" s="2">
         <v>1.9990000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" s="7">
+        <v>6.5750000000000003E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>9</v>
       </c>
@@ -5620,8 +6193,11 @@
       <c r="C38" s="2">
         <v>1.927</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" s="7">
+        <v>6.1969999999999997E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>12</v>
       </c>
@@ -5631,8 +6207,11 @@
       <c r="C39" s="2">
         <v>1.849</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" s="7">
+        <v>5.9810000000000002E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>14</v>
       </c>
@@ -5642,8 +6221,11 @@
       <c r="C40" s="2">
         <v>1.8009999999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" s="7">
+        <v>5.747E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>-3</v>
       </c>
@@ -5653,8 +6235,11 @@
       <c r="C41" s="2">
         <v>2.0840000000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" s="7">
+        <v>5.6030000000000003E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>-6</v>
       </c>
@@ -5664,8 +6249,11 @@
       <c r="C42" s="2">
         <v>1.95</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" s="7">
+        <v>6.4519999999999994E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>-9</v>
       </c>
@@ -5675,8 +6263,11 @@
       <c r="C43" s="2">
         <v>1.8959999999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" s="7">
+        <v>6.0499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>-12</v>
       </c>
@@ -5686,8 +6277,11 @@
       <c r="C44" s="2">
         <v>1.8440000000000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" s="7">
+        <v>5.8880000000000002E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>-14</v>
       </c>
@@ -5697,8 +6291,11 @@
       <c r="C45" s="2">
         <v>1.8049999999999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" s="7">
+        <v>5.7320000000000003E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>0</v>
       </c>
@@ -5708,8 +6305,11 @@
       <c r="C46" s="2">
         <v>1.9139999999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" s="7">
+        <v>5.6149999999999999E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>3</v>
       </c>
@@ -5719,8 +6319,11 @@
       <c r="C47" s="2">
         <v>1.831</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" s="7">
+        <v>5.9420000000000001E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
         <v>6</v>
       </c>
@@ -5730,8 +6333,11 @@
       <c r="C48" s="2">
         <v>1.736</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" s="7">
+        <v>5.6930000000000001E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>9</v>
       </c>
@@ -5741,8 +6347,11 @@
       <c r="C49" s="2">
         <v>1.6859999999999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" s="7">
+        <v>5.4080000000000003E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>12</v>
       </c>
@@ -5752,8 +6361,11 @@
       <c r="C50" s="2">
         <v>1.6160000000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" s="7">
+        <v>5.2580000000000002E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>14</v>
       </c>
@@ -5763,8 +6375,11 @@
       <c r="C51" s="2">
         <v>1.591</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" s="7">
+        <v>5.0479999999999997E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>-3</v>
       </c>
@@ -5774,8 +6389,11 @@
       <c r="C52" s="2">
         <v>1.796</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" s="7">
+        <v>4.9730000000000003E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>-6</v>
       </c>
@@ -5785,8 +6403,11 @@
       <c r="C53" s="2">
         <v>1.6970000000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" s="7">
+        <v>5.5879999999999999E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>-9</v>
       </c>
@@ -5796,8 +6417,11 @@
       <c r="C54" s="2">
         <v>1.66</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" s="7">
+        <v>5.2909999999999999E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>-12</v>
       </c>
@@ -5807,8 +6431,11 @@
       <c r="C55" s="2">
         <v>1.6120000000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" s="7">
+        <v>5.1799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>-14</v>
       </c>
@@ -5818,8 +6445,11 @@
       <c r="C56" s="2">
         <v>1.593</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" s="7">
+        <v>5.0360000000000002E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <v>0</v>
       </c>
@@ -5829,8 +6459,11 @@
       <c r="C57" s="2">
         <v>1.3640000000000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" s="7">
+        <v>4.9790000000000001E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1">
         <v>3</v>
       </c>
@@ -5840,8 +6473,11 @@
       <c r="C58" s="2">
         <v>1.341</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" s="7">
+        <v>4.292E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
         <v>6</v>
       </c>
@@ -5851,8 +6487,11 @@
       <c r="C59" s="2">
         <v>1.2749999999999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" s="7">
+        <v>4.2229999999999997E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1">
         <v>9</v>
       </c>
@@ -5862,8 +6501,11 @@
       <c r="C60" s="2">
         <v>1.2450000000000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60" s="7">
+        <v>4.0250000000000001E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1">
         <v>12</v>
       </c>
@@ -5873,8 +6515,11 @@
       <c r="C61" s="2">
         <v>1.2549999999999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61" s="7">
+        <v>3.9350000000000003E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
         <v>14</v>
       </c>
@@ -5884,8 +6529,11 @@
       <c r="C62" s="2">
         <v>1.2569999999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" s="7">
+        <v>3.9649999999999998E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1">
         <v>-3</v>
       </c>
@@ -5895,8 +6543,11 @@
       <c r="C63" s="2">
         <v>1.3220000000000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63" s="7">
+        <v>3.9710000000000002E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1">
         <v>-6</v>
       </c>
@@ -5906,8 +6557,11 @@
       <c r="C64" s="2">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" s="7">
+        <v>4.1660000000000003E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1">
         <v>-9</v>
       </c>
@@ -5917,8 +6571,11 @@
       <c r="C65" s="2">
         <v>1.2629999999999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65" s="7">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
         <v>-12</v>
       </c>
@@ -5928,8 +6585,11 @@
       <c r="C66" s="2">
         <v>1.2549999999999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66" s="7">
+        <v>3.9890000000000002E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
         <v>-14</v>
       </c>
@@ -5939,8 +6599,11 @@
       <c r="C67" s="2">
         <v>1.2609999999999999</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67" s="7">
+        <v>3.9649999999999998E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1">
         <v>0</v>
       </c>
@@ -5950,8 +6613,11 @@
       <c r="C68" s="2">
         <v>1.012</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68" s="7">
+        <v>3.9829999999999997E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1">
         <v>3</v>
       </c>
@@ -5961,8 +6627,11 @@
       <c r="C69" s="2">
         <v>0.995</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69" s="7">
+        <v>3.236E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1">
         <v>6</v>
       </c>
@@ -5972,8 +6641,11 @@
       <c r="C70" s="2">
         <v>0.95099999999999996</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70" s="7">
+        <v>3.1850000000000003E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1">
         <v>9</v>
       </c>
@@ -5983,8 +6655,11 @@
       <c r="C71" s="2">
         <v>0.94799999999999995</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71" s="7">
+        <v>3.0530000000000002E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1">
         <v>12</v>
       </c>
@@ -5994,8 +6669,11 @@
       <c r="C72" s="2">
         <v>0.96099999999999997</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72" s="7">
+        <v>3.0439999999999998E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1">
         <v>14</v>
       </c>
@@ -6005,8 +6683,11 @@
       <c r="C73" s="2">
         <v>1.016</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73" s="7">
+        <v>3.083E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1">
         <v>-3</v>
       </c>
@@ -6016,8 +6697,11 @@
       <c r="C74" s="2">
         <v>1.008</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74" s="7">
+        <v>3.2480000000000002E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1">
         <v>-6</v>
       </c>
@@ -6027,8 +6711,11 @@
       <c r="C75" s="2">
         <v>1.0049999999999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75" s="7">
+        <v>3.2239999999999998E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1">
         <v>-9</v>
       </c>
@@ -6038,8 +6725,11 @@
       <c r="C76" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76" s="7">
+        <v>3.2149999999999998E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1">
         <v>-12</v>
       </c>
@@ -6049,8 +6739,11 @@
       <c r="C77" s="2">
         <v>1.0069999999999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77" s="7">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1">
         <v>-14</v>
       </c>
@@ -6060,8 +6753,11 @@
       <c r="C78" s="2">
         <v>1.0229999999999999</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78" s="7">
+        <v>3.2210000000000003E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1">
         <v>0</v>
       </c>
@@ -6071,8 +6767,11 @@
       <c r="C79" s="2">
         <v>0.72599999999999998</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79" s="7">
+        <v>3.2689999999999997E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1">
         <v>3</v>
       </c>
@@ -6082,8 +6781,11 @@
       <c r="C80" s="2">
         <v>0.56499999999999995</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80" s="7">
+        <v>2.3779999999999999E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1">
         <v>6</v>
       </c>
@@ -6093,8 +6795,11 @@
       <c r="C81" s="2">
         <v>0.56100000000000005</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81" s="7">
+        <v>1.8950000000000002E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1">
         <v>9</v>
       </c>
@@ -6104,8 +6809,11 @@
       <c r="C82" s="2">
         <v>0.55700000000000005</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82" s="7">
+        <v>1.883E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1">
         <v>12</v>
       </c>
@@ -6115,8 +6823,11 @@
       <c r="C83" s="2">
         <v>0.61099999999999999</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83" s="7">
+        <v>1.8710000000000001E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1">
         <v>14</v>
       </c>
@@ -6126,8 +6837,11 @@
       <c r="C84" s="2">
         <v>0.66600000000000004</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84" s="7">
+        <v>2.0330000000000001E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1">
         <v>-3</v>
       </c>
@@ -6137,8 +6851,11 @@
       <c r="C85" s="2">
         <v>0.58399999999999996</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="D85" s="7">
+        <v>2.198E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1">
         <v>-6</v>
       </c>
@@ -6148,8 +6865,11 @@
       <c r="C86" s="2">
         <v>0.59099999999999997</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="D86" s="7">
+        <v>1.9519999999999999E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1">
         <v>-9</v>
       </c>
@@ -6159,8 +6879,11 @@
       <c r="C87" s="2">
         <v>0.58799999999999997</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="D87" s="7">
+        <v>1.9730000000000001E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1">
         <v>-12</v>
       </c>
@@ -6170,8 +6893,11 @@
       <c r="C88" s="2">
         <v>0.60899999999999999</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D88" s="7">
+        <v>1.9640000000000001E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1">
         <v>-14</v>
       </c>
@@ -6181,8 +6907,11 @@
       <c r="C89" s="2">
         <v>0.67500000000000004</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89" s="7">
+        <v>2.027E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1">
         <v>0</v>
       </c>
@@ -6192,8 +6921,11 @@
       <c r="C90" s="2">
         <v>0.30499999999999999</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="D90" s="7">
+        <v>2.2249999999999999E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1">
         <v>3</v>
       </c>
@@ -6203,8 +6935,11 @@
       <c r="C91" s="2">
         <v>0.311</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="D91" s="7">
+        <v>1.115E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1">
         <v>6</v>
       </c>
@@ -6214,8 +6949,11 @@
       <c r="C92" s="2">
         <v>0.29599999999999999</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92" s="7">
+        <v>1.133E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1">
         <v>9</v>
       </c>
@@ -6225,8 +6963,11 @@
       <c r="C93" s="2">
         <v>0.311</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93" s="7">
+        <v>1.0880000000000001E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1">
         <v>12</v>
       </c>
@@ -6236,8 +6977,11 @@
       <c r="C94" s="2">
         <v>0.33900000000000002</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94" s="7">
+        <v>1.133E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1">
         <v>14</v>
       </c>
@@ -6247,8 +6991,11 @@
       <c r="C95" s="2">
         <v>0.38600000000000001</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95" s="7">
+        <v>1.217E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1">
         <v>-3</v>
       </c>
@@ -6258,8 +7005,11 @@
       <c r="C96" s="2">
         <v>0.309</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96" s="7">
+        <v>1.358E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1">
         <v>-6</v>
       </c>
@@ -6269,8 +7019,11 @@
       <c r="C97" s="2">
         <v>0.316</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="D97" s="7">
+        <v>1.1270000000000001E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1">
         <v>-9</v>
       </c>
@@ -6280,8 +7033,11 @@
       <c r="C98" s="2">
         <v>0.312</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="D98" s="7">
+        <v>1.1480000000000001E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1">
         <v>-12</v>
       </c>
@@ -6291,8 +7047,11 @@
       <c r="C99" s="2">
         <v>0.33300000000000002</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="D99" s="7">
+        <v>1.136E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1">
         <v>-14</v>
       </c>
@@ -6302,8 +7061,11 @@
       <c r="C100" s="2">
         <v>0.38800000000000001</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100" s="7">
+        <v>1.1990000000000001E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1">
         <v>0</v>
       </c>
@@ -6313,8 +7075,11 @@
       <c r="C101" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="D101" s="7">
+        <v>1.3639999999999999E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1">
         <v>3</v>
       </c>
@@ -6324,8 +7089,11 @@
       <c r="C102" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102" s="7">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1">
         <v>6</v>
       </c>
@@ -6335,8 +7103,11 @@
       <c r="C103" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103" s="7">
+        <v>2.2399999999999998E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1">
         <v>9</v>
       </c>
@@ -6346,8 +7117,11 @@
       <c r="C104" s="2">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="D104" s="7">
+        <v>2.0899999999999998E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" s="1">
         <v>12</v>
       </c>
@@ -6357,8 +7131,11 @@
       <c r="C105" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="D105" s="7">
+        <v>2.0300000000000001E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" s="1">
         <v>14</v>
       </c>
@@ -6368,8 +7145,11 @@
       <c r="C106" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="D106" s="7">
+        <v>2.15E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" s="1">
         <v>-3</v>
       </c>
@@ -6379,8 +7159,11 @@
       <c r="C107" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="D107" s="7">
+        <v>2.15E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" s="1">
         <v>-6</v>
       </c>
@@ -6390,8 +7173,11 @@
       <c r="C108" s="2">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="D108" s="7">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" s="1">
         <v>-9</v>
       </c>
@@ -6401,8 +7187,11 @@
       <c r="C109" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="D109" s="7">
+        <v>2.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" s="1">
         <v>-12</v>
       </c>
@@ -6412,8 +7201,11 @@
       <c r="C110" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="D110" s="7">
+        <v>2.1199999999999999E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" s="1">
         <v>-14</v>
       </c>
@@ -6422,6 +7214,69 @@
       </c>
       <c r="C111" s="2">
         <v>0.02</v>
+      </c>
+      <c r="D111" s="7">
+        <v>2.33E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="D112" s="7">
+        <v>2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4">
+      <c r="D113" s="7">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4">
+      <c r="D114" s="7">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4">
+      <c r="D115" s="7">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="4:4">
+      <c r="D116" s="7">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="4:4">
+      <c r="D117" s="7">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="4:4">
+      <c r="D118" s="7">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="4:4">
+      <c r="D119" s="7">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="4:4">
+      <c r="D120" s="7">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="4:4">
+      <c r="D121" s="7">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="4:4">
+      <c r="D122" s="7">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="4:4">
+      <c r="D123" s="9">
+        <v>2E-3</v>
       </c>
     </row>
   </sheetData>
@@ -6431,13 +7286,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C769E4-1171-4DB7-BA6E-56061B91681A}">
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D123"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -6447,8 +7304,11 @@
       <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -6458,8 +7318,11 @@
       <c r="C2" s="1">
         <v>2.508</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="11">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -6469,8 +7332,11 @@
       <c r="C3" s="1">
         <v>2.5270000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="12">
+        <v>7.7240000000000003E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -6480,8 +7346,11 @@
       <c r="C4" s="1">
         <v>2.5249999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="12">
+        <v>7.7810000000000004E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>9</v>
       </c>
@@ -6491,8 +7360,11 @@
       <c r="C5" s="1">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="12">
+        <v>7.775E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>12</v>
       </c>
@@ -6502,8 +7374,11 @@
       <c r="C6" s="1">
         <v>2.504</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="12">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>14</v>
       </c>
@@ -6513,8 +7388,11 @@
       <c r="C7" s="1">
         <v>2.4929999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="12">
+        <v>7.7119999999999994E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>-3</v>
       </c>
@@ -6524,8 +7402,11 @@
       <c r="C8" s="4">
         <v>2.5230000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="12">
+        <v>7.6789999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>-6</v>
       </c>
@@ -6535,8 +7416,11 @@
       <c r="C9" s="1">
         <v>2.4260000000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="12">
+        <v>7.7689999999999995E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>-9</v>
       </c>
@@ -6546,8 +7430,11 @@
       <c r="C10" s="1">
         <v>2.415</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="12">
+        <v>7.4779999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>-12</v>
       </c>
@@ -6557,8 +7444,11 @@
       <c r="C11" s="1">
         <v>2.415</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="12">
+        <v>7.4450000000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>-14</v>
       </c>
@@ -6568,8 +7458,11 @@
       <c r="C12" s="1">
         <v>2.4020000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="12">
+        <v>7.4450000000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -6579,8 +7472,11 @@
       <c r="C13" s="1">
         <v>2.15</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="12">
+        <v>7.4060000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -6590,8 +7486,11 @@
       <c r="C14" s="1">
         <v>2.173</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="12">
+        <v>6.6500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>6</v>
       </c>
@@ -6601,8 +7500,11 @@
       <c r="C15" s="1">
         <v>2.206</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="12">
+        <v>6.719E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>9</v>
       </c>
@@ -6612,8 +7514,11 @@
       <c r="C16" s="1">
         <v>2.194</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="12">
+        <v>6.8180000000000004E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>12</v>
       </c>
@@ -6623,8 +7528,11 @@
       <c r="C17" s="1">
         <v>2.1560000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="12">
+        <v>6.7820000000000005E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -6634,8 +7542,11 @@
       <c r="C18" s="1">
         <v>2.1019999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="12">
+        <v>6.6680000000000003E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>-3</v>
       </c>
@@ -6645,8 +7556,11 @@
       <c r="C19" s="1">
         <v>2.157</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="12">
+        <v>6.5060000000000007E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>-6</v>
       </c>
@@ -6656,8 +7570,11 @@
       <c r="C20" s="1">
         <v>2.1800000000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="12">
+        <v>6.6710000000000005E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>-9</v>
       </c>
@@ -6667,8 +7584,11 @@
       <c r="C21" s="1">
         <v>2.1880000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="12">
+        <v>6.7400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>-12</v>
       </c>
@@ -6678,8 +7598,11 @@
       <c r="C22" s="1">
         <v>2.1589999999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="12">
+        <v>6.7640000000000006E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>-14</v>
       </c>
@@ -6689,8 +7612,11 @@
       <c r="C23" s="1">
         <v>2.1030000000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="12">
+        <v>6.6769999999999996E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -6700,8 +7626,11 @@
       <c r="C24" s="1">
         <v>1.8140000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="12">
+        <v>6.5089999999999995E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -6711,8 +7640,11 @@
       <c r="C25" s="1">
         <v>1.871</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="12">
+        <v>5.6419999999999998E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>6</v>
       </c>
@@ -6722,8 +7654,11 @@
       <c r="C26" s="1">
         <v>1.944</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="12">
+        <v>5.8130000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>9</v>
       </c>
@@ -6733,8 +7668,11 @@
       <c r="C27" s="1">
         <v>1.9590000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="12">
+        <v>6.0319999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>12</v>
       </c>
@@ -6744,8 +7682,11 @@
       <c r="C28" s="1">
         <v>1.9179999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="12">
+        <v>6.0769999999999998E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>14</v>
       </c>
@@ -6755,8 +7696,11 @@
       <c r="C29" s="1">
         <v>1.861</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="12">
+        <v>5.9540000000000003E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>-3</v>
       </c>
@@ -6766,8 +7710,11 @@
       <c r="C30" s="1">
         <v>1.8640000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="12">
+        <v>5.7829999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>-6</v>
       </c>
@@ -6777,8 +7724,11 @@
       <c r="C31" s="1">
         <v>1.9059999999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="12">
+        <v>5.7919999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>-9</v>
       </c>
@@ -6788,8 +7738,11 @@
       <c r="C32" s="1">
         <v>1.927</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="12">
+        <v>5.9180000000000003E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>-12</v>
       </c>
@@ -6799,8 +7752,11 @@
       <c r="C33" s="1">
         <v>1.9039999999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="12">
+        <v>5.9810000000000002E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>-14</v>
       </c>
@@ -6810,8 +7766,11 @@
       <c r="C34" s="1">
         <v>1.8660000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="12">
+        <v>5.9119999999999999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -6821,8 +7780,11 @@
       <c r="C35" s="1">
         <v>1.448</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="12">
+        <v>5.7979999999999997E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>3</v>
       </c>
@@ -6832,8 +7794,11 @@
       <c r="C36" s="1">
         <v>1.589</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="12">
+        <v>4.5440000000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>6</v>
       </c>
@@ -6843,8 +7808,11 @@
       <c r="C37" s="1">
         <v>1.667</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" s="12">
+        <v>4.9669999999999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>9</v>
       </c>
@@ -6854,8 +7822,11 @@
       <c r="C38" s="1">
         <v>1.708</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" s="12">
+        <v>5.2010000000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>12</v>
       </c>
@@ -6865,8 +7836,11 @@
       <c r="C39" s="1">
         <v>1.6830000000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" s="12">
+        <v>5.3240000000000003E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>14</v>
       </c>
@@ -6876,8 +7850,11 @@
       <c r="C40" s="1">
         <v>1.647</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" s="12">
+        <v>5.2490000000000002E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>-3</v>
       </c>
@@ -6887,8 +7864,11 @@
       <c r="C41" s="1">
         <v>1.587</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" s="12">
+        <v>5.1409999999999997E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>-6</v>
       </c>
@@ -6898,8 +7878,11 @@
       <c r="C42" s="1">
         <v>1.6419999999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" s="12">
+        <v>4.9610000000000001E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>-9</v>
       </c>
@@ -6909,8 +7892,11 @@
       <c r="C43" s="1">
         <v>1.6659999999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" s="12">
+        <v>5.126E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>-12</v>
       </c>
@@ -6920,8 +7906,11 @@
       <c r="C44" s="1">
         <v>1.6639999999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" s="12">
+        <v>5.1979999999999998E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>-14</v>
       </c>
@@ -6931,8 +7920,11 @@
       <c r="C45" s="1">
         <v>1.66</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" s="12">
+        <v>5.1920000000000001E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>0</v>
       </c>
@@ -6942,8 +7934,11 @@
       <c r="C46" s="1">
         <v>1.32</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" s="12">
+        <v>5.1799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>3</v>
       </c>
@@ -6953,8 +7948,11 @@
       <c r="C47" s="1">
         <v>1.399</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" s="12">
+        <v>4.1599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
         <v>6</v>
       </c>
@@ -6964,8 +7962,11 @@
       <c r="C48" s="1">
         <v>1.413</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" s="12">
+        <v>4.3970000000000002E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>9</v>
       </c>
@@ -6975,8 +7976,11 @@
       <c r="C49" s="1">
         <v>1.43</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" s="12">
+        <v>4.4389999999999999E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>12</v>
       </c>
@@ -6986,8 +7990,11 @@
       <c r="C50" s="1">
         <v>1.419</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" s="12">
+        <v>4.4900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>14</v>
       </c>
@@ -6997,8 +8004,11 @@
       <c r="C51" s="1">
         <v>1.4379999999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" s="12">
+        <v>4.4569999999999999E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>-3</v>
       </c>
@@ -7008,8 +8018,11 @@
       <c r="C52" s="1">
         <v>1.3779999999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" s="12">
+        <v>4.514E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>-6</v>
       </c>
@@ -7019,8 +8032,11 @@
       <c r="C53" s="1">
         <v>1.411</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" s="12">
+        <v>4.3339999999999997E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>-9</v>
       </c>
@@ -7030,8 +8046,11 @@
       <c r="C54" s="1">
         <v>1.448</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" s="12">
+        <v>4.4330000000000001E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>-12</v>
       </c>
@@ -7041,8 +8060,11 @@
       <c r="C55" s="1">
         <v>1.4410000000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" s="12">
+        <v>4.5440000000000001E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>-14</v>
       </c>
@@ -7052,8 +8074,11 @@
       <c r="C56" s="1">
         <v>1.4419999999999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" s="12">
+        <v>4.5229999999999999E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <v>0</v>
       </c>
@@ -7063,8 +8088,11 @@
       <c r="C57" s="1">
         <v>1.3169999999999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" s="12">
+        <v>4.5260000000000002E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1">
         <v>3</v>
       </c>
@@ -7074,8 +8102,11 @@
       <c r="C58" s="1">
         <v>1.2450000000000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" s="12">
+        <v>4.1509999999999998E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
         <v>6</v>
       </c>
@@ -7085,8 +8116,11 @@
       <c r="C59" s="1">
         <v>1.202</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" s="12">
+        <v>3.9350000000000003E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1">
         <v>9</v>
       </c>
@@ -7096,8 +8130,11 @@
       <c r="C60" s="1">
         <v>1.1539999999999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60" s="12">
+        <v>3.8059999999999997E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1">
         <v>12</v>
       </c>
@@ -7107,8 +8144,11 @@
       <c r="C61" s="1">
         <v>1.1970000000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61" s="12">
+        <v>3.662E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
         <v>14</v>
       </c>
@@ -7118,8 +8158,11 @@
       <c r="C62" s="1">
         <v>1.206</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" s="12">
+        <v>3.7909999999999999E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1">
         <v>-3</v>
       </c>
@@ -7129,8 +8172,11 @@
       <c r="C63" s="1">
         <v>1.236</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63" s="12">
+        <v>3.8179999999999999E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1">
         <v>-6</v>
       </c>
@@ -7140,8 +8186,11 @@
       <c r="C64" s="1">
         <v>1.2110000000000001</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" s="12">
+        <v>3.9079999999999997E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1">
         <v>-9</v>
       </c>
@@ -7151,8 +8200,11 @@
       <c r="C65" s="1">
         <v>1.194</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65" s="12">
+        <v>3.8330000000000003E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
         <v>-12</v>
       </c>
@@ -7162,8 +8214,11 @@
       <c r="C66" s="1">
         <v>1.208</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66" s="12">
+        <v>3.7819999999999999E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
         <v>-14</v>
       </c>
@@ -7173,8 +8228,11 @@
       <c r="C67" s="1">
         <v>1.2090000000000001</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67" s="12">
+        <v>3.8240000000000003E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1">
         <v>0</v>
       </c>
@@ -7184,8 +8242,11 @@
       <c r="C68" s="1">
         <v>1.1220000000000001</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68" s="12">
+        <v>3.8269999999999998E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1">
         <v>3</v>
       </c>
@@ -7195,8 +8256,11 @@
       <c r="C69" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69" s="12">
+        <v>3.5659999999999997E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1">
         <v>6</v>
       </c>
@@ -7206,8 +8270,11 @@
       <c r="C70" s="1">
         <v>0.94599999999999995</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70" s="12">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1">
         <v>9</v>
       </c>
@@ -7217,8 +8284,11 @@
       <c r="C71" s="1">
         <v>0.92200000000000004</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71" s="12">
+        <v>3.0380000000000001E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1">
         <v>12</v>
       </c>
@@ -7228,8 +8298,11 @@
       <c r="C72" s="1">
         <v>0.95299999999999996</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72" s="12">
+        <v>2.9659999999999999E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1">
         <v>14</v>
       </c>
@@ -7239,8 +8312,11 @@
       <c r="C73" s="1">
         <v>0.97699999999999998</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73" s="12">
+        <v>3.0589999999999999E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1">
         <v>-3</v>
       </c>
@@ -7250,8 +8326,11 @@
       <c r="C74" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74" s="12">
+        <v>3.1309999999999998E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1">
         <v>-6</v>
       </c>
@@ -7261,8 +8340,11 @@
       <c r="C75" s="1">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75" s="12">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1">
         <v>-9</v>
       </c>
@@ -7272,8 +8354,11 @@
       <c r="C76" s="1">
         <v>0.97399999999999998</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76" s="12">
+        <v>3.3500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1">
         <v>-12</v>
       </c>
@@ -7283,8 +8368,11 @@
       <c r="C77" s="1">
         <v>0.96899999999999997</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77" s="12">
+        <v>3.1220000000000001E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1">
         <v>-14</v>
       </c>
@@ -7294,8 +8382,11 @@
       <c r="C78" s="1">
         <v>0.997</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78" s="12">
+        <v>3.107E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1">
         <v>0</v>
       </c>
@@ -7305,8 +8396,11 @@
       <c r="C79" s="1">
         <v>0.64600000000000002</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79" s="12">
+        <v>3.1910000000000001E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1">
         <v>3</v>
       </c>
@@ -7316,8 +8410,11 @@
       <c r="C80" s="1">
         <v>0.623</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80" s="12">
+        <v>2.138E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1">
         <v>6</v>
       </c>
@@ -7327,8 +8424,11 @@
       <c r="C81" s="1">
         <v>0.58199999999999996</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81" s="12">
+        <v>2.069E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1">
         <v>9</v>
       </c>
@@ -7338,8 +8438,11 @@
       <c r="C82" s="1">
         <v>0.57599999999999996</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82" s="12">
+        <v>1.9460000000000002E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1">
         <v>12</v>
       </c>
@@ -7349,8 +8452,11 @@
       <c r="C83" s="1">
         <v>0.628</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83" s="12">
+        <v>1.9279999999999999E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1">
         <v>14</v>
       </c>
@@ -7360,8 +8466,11 @@
       <c r="C84" s="1">
         <v>0.69199999999999995</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84" s="12">
+        <v>2.0840000000000001E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1">
         <v>-3</v>
       </c>
@@ -7371,8 +8480,11 @@
       <c r="C85" s="1">
         <v>0.753</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="D85" s="12">
+        <v>2.2759999999999999E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1">
         <v>-6</v>
       </c>
@@ -7382,8 +8494,11 @@
       <c r="C86" s="1">
         <v>0.55100000000000005</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="D86" s="12">
+        <v>2.4590000000000001E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1">
         <v>-9</v>
       </c>
@@ -7393,8 +8508,11 @@
       <c r="C87" s="1">
         <v>0.71299999999999997</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="D87" s="12">
+        <v>1.8530000000000001E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1">
         <v>-12</v>
       </c>
@@ -7404,8 +8522,11 @@
       <c r="C88" s="1">
         <v>0.58599999999999997</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D88" s="12">
+        <v>2.3390000000000001E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1">
         <v>-14</v>
       </c>
@@ -7415,8 +8536,11 @@
       <c r="C89" s="1">
         <v>0.67300000000000004</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89" s="12">
+        <v>1.958E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1">
         <v>0</v>
       </c>
@@ -7426,8 +8550,11 @@
       <c r="C90" s="1">
         <v>0.32800000000000001</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="D90" s="12">
+        <v>2.2190000000000001E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1">
         <v>3</v>
       </c>
@@ -7437,8 +8564,11 @@
       <c r="C91">
         <v>0.36299999999999999</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="D91" s="12">
+        <v>1.184E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1">
         <v>6</v>
       </c>
@@ -7448,8 +8578,11 @@
       <c r="C92" s="1">
         <v>0.33300000000000002</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92" s="12">
+        <v>1.289E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1">
         <v>9</v>
       </c>
@@ -7459,8 +8592,11 @@
       <c r="C93" s="1">
         <v>0.32100000000000001</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93" s="12">
+        <v>1.1990000000000001E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1">
         <v>12</v>
       </c>
@@ -7470,8 +8606,11 @@
       <c r="C94" s="1">
         <v>0.36299999999999999</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94" s="12">
+        <v>1.163E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1">
         <v>14</v>
       </c>
@@ -7481,8 +8620,11 @@
       <c r="C95" s="1">
         <v>0.435</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95" s="12">
+        <v>1.289E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1">
         <v>-3</v>
       </c>
@@ -7492,8 +8634,11 @@
       <c r="C96" s="1">
         <v>0.39500000000000002</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96" s="12">
+        <v>1.5049999999999999E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1">
         <v>-6</v>
       </c>
@@ -7503,8 +8648,11 @@
       <c r="C97" s="1">
         <v>0.372</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="D97" s="12">
+        <v>1.3849999999999999E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1">
         <v>-9</v>
       </c>
@@ -7514,8 +8662,11 @@
       <c r="C98" s="1">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="D98" s="12">
+        <v>1.316E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1">
         <v>-12</v>
       </c>
@@ -7525,8 +8676,11 @@
       <c r="C99" s="1">
         <v>0.309</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="D99" s="12">
+        <v>1.46E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1">
         <v>-14</v>
       </c>
@@ -7536,8 +8690,11 @@
       <c r="C100" s="1">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100" s="12">
+        <v>1.1270000000000001E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1">
         <v>0</v>
       </c>
@@ -7547,8 +8704,11 @@
       <c r="C101" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="D101" s="12">
+        <v>1.2800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1">
         <v>3</v>
       </c>
@@ -7558,8 +8718,11 @@
       <c r="C102" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102" s="12">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1">
         <v>6</v>
       </c>
@@ -7569,8 +8732,11 @@
       <c r="C103" s="1">
         <v>6.6000000000000003E-2</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103" s="12">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1">
         <v>9</v>
       </c>
@@ -7580,8 +8746,11 @@
       <c r="C104" s="1">
         <v>1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="D104" s="12">
+        <v>3.98E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" s="1">
         <v>12</v>
       </c>
@@ -7591,8 +8760,11 @@
       <c r="C105" s="1">
         <v>2.9000000000000001E-2</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="D105" s="12">
+        <v>2.5100000000000001E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" s="1">
         <v>14</v>
       </c>
@@ -7602,8 +8774,11 @@
       <c r="C106" s="1">
         <v>6.6000000000000003E-2</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="D106" s="12">
+        <v>2.8700000000000002E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" s="1">
         <v>-3</v>
       </c>
@@ -7613,8 +8788,11 @@
       <c r="C107" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="D107" s="12">
+        <v>3.98E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" s="1">
         <v>-6</v>
       </c>
@@ -7624,8 +8802,11 @@
       <c r="C108" s="1">
         <v>5.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="D108" s="12">
+        <v>2.2100000000000002E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" s="1">
         <v>-9</v>
       </c>
@@ -7635,8 +8816,11 @@
       <c r="C109" s="1">
         <v>8.1000000000000003E-2</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="D109" s="12">
+        <v>3.5599999999999998E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" s="1">
         <v>-12</v>
       </c>
@@ -7646,8 +8830,11 @@
       <c r="C110" s="1">
         <v>6.7000000000000004E-2</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="D110" s="12">
+        <v>4.4299999999999999E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" s="1">
         <v>-14</v>
       </c>
@@ -7656,6 +8843,69 @@
       </c>
       <c r="C111" s="1">
         <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="D111" s="12">
+        <v>4.0099999999999997E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="D112" s="12">
+        <v>4.13E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4">
+      <c r="D113" s="12">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4">
+      <c r="D114" s="12">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4">
+      <c r="D115" s="12">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="4:4">
+      <c r="D116" s="12">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="4:4">
+      <c r="D117" s="12">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="4:4">
+      <c r="D118" s="12">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="4:4">
+      <c r="D119" s="12">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="4:4">
+      <c r="D120" s="12">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="4:4">
+      <c r="D121" s="12">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="4:4">
+      <c r="D122" s="12">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="4:4">
+      <c r="D123" s="13">
+        <v>2E-3</v>
       </c>
     </row>
   </sheetData>
